--- a/Кросбраузерність.xlsx
+++ b/Кросбраузерність.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="71">
   <si>
     <t>#</t>
   </si>
@@ -31,9 +31,6 @@
     <t>1.1.</t>
   </si>
   <si>
-    <t>1.2.</t>
-  </si>
-  <si>
     <t>Головна сторінка</t>
   </si>
   <si>
@@ -70,9 +67,6 @@
     <t>1.1.10.</t>
   </si>
   <si>
-    <t>Футер сайту</t>
-  </si>
-  <si>
     <t>Кросбраузерність</t>
   </si>
   <si>
@@ -128,13 +122,131 @@
   </si>
   <si>
     <t>Посилання Звернення Громадян</t>
+  </si>
+  <si>
+    <t>1.1.1.1</t>
+  </si>
+  <si>
+    <t>Суспільство</t>
+  </si>
+  <si>
+    <t>1.1.1.2</t>
+  </si>
+  <si>
+    <t>Фінанси</t>
+  </si>
+  <si>
+    <t>Діяльність депутатів</t>
+  </si>
+  <si>
+    <t>Освіта</t>
+  </si>
+  <si>
+    <t>Медецина</t>
+  </si>
+  <si>
+    <t>Спорт</t>
+  </si>
+  <si>
+    <t>Культура</t>
+  </si>
+  <si>
+    <t>Політика</t>
+  </si>
+  <si>
+    <t>Надзвичайні події</t>
+  </si>
+  <si>
+    <t>Екологія</t>
+  </si>
+  <si>
+    <t>Оголошення</t>
+  </si>
+  <si>
+    <t>Оперативна інформація</t>
+  </si>
+  <si>
+    <t>Опитування</t>
+  </si>
+  <si>
+    <t>Хоч на сторінку й зайшов, але вона без інформації адже на стадії заповнення</t>
+  </si>
+  <si>
+    <t>Обговорення проектів</t>
+  </si>
+  <si>
+    <t>200-річчя Т.Г.Шевченка</t>
+  </si>
+  <si>
+    <t>Не розумію наявність цієї сторінки через десятиліття після події</t>
+  </si>
+  <si>
+    <t>Перейменування вулиць, провулків та скверів</t>
+  </si>
+  <si>
+    <t>1.1.1.3</t>
+  </si>
+  <si>
+    <t>1.1.1.4</t>
+  </si>
+  <si>
+    <t>1.1.1.5</t>
+  </si>
+  <si>
+    <t>1.1.1.6</t>
+  </si>
+  <si>
+    <t>1.1.1.7</t>
+  </si>
+  <si>
+    <t>1.1.1.8</t>
+  </si>
+  <si>
+    <t>1.1.1.9</t>
+  </si>
+  <si>
+    <t>1.1.1.10</t>
+  </si>
+  <si>
+    <t>1.1.1.11</t>
+  </si>
+  <si>
+    <t>1.1.1.12</t>
+  </si>
+  <si>
+    <t>1.1.1.13</t>
+  </si>
+  <si>
+    <t>1.1.1.14</t>
+  </si>
+  <si>
+    <t>1.1.1.15</t>
+  </si>
+  <si>
+    <t>1.1.1.16</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Сторінка </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Новини</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -162,6 +274,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
     </font>
   </fonts>
   <fills count="2">
@@ -391,7 +511,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -421,6 +541,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -761,10 +884,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L18"/>
+  <dimension ref="A1:L35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="2" x14ac:dyDescent="0.25"/>
@@ -779,65 +902,65 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="19"/>
+      <c r="A1" s="20" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+      <c r="E1" s="21"/>
+      <c r="F1" s="21"/>
+      <c r="G1" s="21"/>
+      <c r="H1" s="21"/>
+      <c r="I1" s="21"/>
+      <c r="J1" s="21"/>
+      <c r="K1" s="22"/>
       <c r="L1" s="1"/>
     </row>
     <row r="2" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="20" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="C2" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="24"/>
+      <c r="B2" s="23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" s="26"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="27"/>
       <c r="G2" s="2"/>
       <c r="H2" s="2"/>
-      <c r="I2" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="27"/>
+      <c r="I2" s="28" t="s">
+        <v>19</v>
+      </c>
+      <c r="J2" s="29"/>
+      <c r="K2" s="30"/>
       <c r="L2" s="15" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="21"/>
-      <c r="B3" s="21"/>
+      <c r="A3" s="24"/>
+      <c r="B3" s="24"/>
       <c r="C3" s="3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="30"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="33"/>
       <c r="L3" s="16"/>
     </row>
     <row r="4" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -845,7 +968,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>3</v>
@@ -861,9 +984,9 @@
       </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="13"/>
-      <c r="K4" s="14"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="18"/>
+      <c r="K4" s="19"/>
       <c r="L4" s="3"/>
     </row>
     <row r="5" spans="1:12" ht="15.75" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -871,7 +994,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>3</v>
@@ -887,17 +1010,17 @@
       </c>
       <c r="G5" s="3"/>
       <c r="H5" s="3"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="13"/>
-      <c r="K5" s="14"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="18"/>
+      <c r="K5" s="19"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>3</v>
@@ -913,17 +1036,17 @@
       </c>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="13"/>
-      <c r="K6" s="14"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="18"/>
+      <c r="K6" s="19"/>
       <c r="L6" s="3"/>
     </row>
     <row r="7" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>3</v>
@@ -939,17 +1062,17 @@
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="13"/>
-      <c r="K7" s="14"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="18"/>
+      <c r="K7" s="19"/>
       <c r="L7" s="3"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>3</v>
@@ -965,17 +1088,17 @@
       </c>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="12"/>
-      <c r="J8" s="13"/>
-      <c r="K8" s="14"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="18"/>
+      <c r="K8" s="19"/>
       <c r="L8" s="3"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>3</v>
@@ -991,17 +1114,17 @@
       </c>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="13"/>
-      <c r="K9" s="14"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="18"/>
+      <c r="K9" s="19"/>
       <c r="L9" s="3"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>3</v>
@@ -1017,17 +1140,17 @@
       </c>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="12"/>
-      <c r="J10" s="13"/>
-      <c r="K10" s="14"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="18"/>
+      <c r="K10" s="19"/>
       <c r="L10" s="3"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>3</v>
@@ -1043,17 +1166,17 @@
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="12"/>
-      <c r="J11" s="13"/>
-      <c r="K11" s="14"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="18"/>
+      <c r="K11" s="19"/>
       <c r="L11" s="3"/>
     </row>
     <row r="12" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="9" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>3</v>
@@ -1069,17 +1192,17 @@
       </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="12"/>
-      <c r="J12" s="13"/>
-      <c r="K12" s="14"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="18"/>
+      <c r="K12" s="19"/>
       <c r="L12" s="3"/>
     </row>
     <row r="13" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>3</v>
@@ -1095,17 +1218,17 @@
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="12"/>
-      <c r="J13" s="13"/>
-      <c r="K13" s="14"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="18"/>
+      <c r="K13" s="19"/>
       <c r="L13" s="3"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="9" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>3</v>
@@ -1121,17 +1244,17 @@
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="13"/>
-      <c r="K14" s="14"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="18"/>
+      <c r="K14" s="19"/>
       <c r="L14" s="3"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="9" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>3</v>
@@ -1147,44 +1270,474 @@
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="12"/>
-      <c r="J15" s="13"/>
-      <c r="K15" s="14"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="18"/>
+      <c r="K15" s="19"/>
       <c r="L15" s="3"/>
     </row>
-    <row r="16" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B16" s="10" t="s">
-        <v>18</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="5" t="s">
-        <v>3</v>
-      </c>
+    <row r="16" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="9"/>
+      <c r="B16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="7"/>
-      <c r="K16" s="8"/>
+      <c r="I16" s="12"/>
+      <c r="J16" s="13"/>
+      <c r="K16" s="14"/>
       <c r="L16" s="3"/>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>31</v>
+    <row r="17" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F17" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="12"/>
+      <c r="J17" s="13"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="3"/>
+    </row>
+    <row r="18" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>38</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="12"/>
+      <c r="J18" s="13"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="3"/>
+    </row>
+    <row r="19" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="12"/>
+      <c r="J19" s="13"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="3"/>
+    </row>
+    <row r="20" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="12"/>
+      <c r="J20" s="13"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="3"/>
+    </row>
+    <row r="21" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="9" t="s">
+        <v>58</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="12"/>
+      <c r="J21" s="13"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="3"/>
+    </row>
+    <row r="22" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="12"/>
+      <c r="J22" s="13"/>
+      <c r="K22" s="14"/>
+      <c r="L22" s="3"/>
+    </row>
+    <row r="23" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>60</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="12"/>
+      <c r="J23" s="13"/>
+      <c r="K23" s="14"/>
+      <c r="L23" s="3"/>
+    </row>
+    <row r="24" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F24" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="12"/>
+      <c r="J24" s="13"/>
+      <c r="K24" s="14"/>
+      <c r="L24" s="3"/>
+    </row>
+    <row r="25" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>62</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="13"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="3"/>
+    </row>
+    <row r="26" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>63</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F26" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="12"/>
+      <c r="J26" s="13"/>
+      <c r="K26" s="14"/>
+      <c r="L26" s="3"/>
+    </row>
+    <row r="27" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F27" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="12"/>
+      <c r="J27" s="13"/>
+      <c r="K27" s="14"/>
+      <c r="L27" s="3"/>
+    </row>
+    <row r="28" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F28" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="12"/>
+      <c r="J28" s="13"/>
+      <c r="K28" s="14"/>
+      <c r="L28" s="3"/>
+    </row>
+    <row r="29" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F29" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="J29" s="13"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="9" t="s">
+        <v>67</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F30" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G30" s="3"/>
+      <c r="H30" s="3"/>
+      <c r="I30" s="12"/>
+      <c r="J30" s="13"/>
+      <c r="K30" s="14"/>
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="9" t="s">
+        <v>68</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G31" s="3"/>
+      <c r="H31" s="3"/>
+      <c r="I31" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="J31" s="13"/>
+      <c r="K31" s="14"/>
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:12" ht="15.75" outlineLevel="2" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="9" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="F32" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="G32" s="3"/>
+      <c r="H32" s="3"/>
+      <c r="I32" s="12"/>
+      <c r="J32" s="13"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="11"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+      <c r="E33" s="5"/>
+      <c r="F33" s="5"/>
+      <c r="G33" s="3"/>
+      <c r="H33" s="3"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="8"/>
+      <c r="L33" s="3"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="I12:K12"/>
+    <mergeCell ref="I13:K13"/>
+    <mergeCell ref="I14:K14"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="I9:K9"/>
     <mergeCell ref="A1:K1"/>
@@ -1197,12 +1750,6 @@
     <mergeCell ref="I6:K6"/>
     <mergeCell ref="I7:K7"/>
     <mergeCell ref="I8:K8"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="I12:K12"/>
-    <mergeCell ref="I13:K13"/>
-    <mergeCell ref="I14:K14"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
